--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3340814.212680441</v>
+        <v>3338562.132969233</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329281</v>
       </c>
       <c r="F2" t="n">
-        <v>129.967780924639</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.02719212039672</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.74868616823407</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666771</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.67376214905688</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>33.39509596964031</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278465</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1105,22 +1105,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9860694905948</v>
+        <v>170.7304930065926</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.52129633183125</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>93.4044447618827</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187854</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1767.878520285689</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1398.916003345278</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1040.650304738527</v>
+        <v>953.6440892486878</v>
       </c>
       <c r="E2" t="n">
-        <v>654.8620521402829</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1767.878520285689</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1007.446783179745</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C4" t="n">
-        <v>838.5106002518386</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>688.3939608395028</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>540.4808672571097</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>393.5909197591993</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>79.67089635177607</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1857.851430746842</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1666.165546573669</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1444.398931143195</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.877378051533</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X4" t="n">
-        <v>1409.887827153515</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y4" t="n">
-        <v>1189.095248009985</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4607,10 +4607,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2033.921080979572</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>975.2294612008255</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>806.2932782729187</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4753,22 +4753,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1196.022040344356</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.2294612008255</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.807527238423</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.807527238423</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.541828631672</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E8" t="n">
-        <v>846.7535760334281</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F8" t="n">
-        <v>435.7676712438205</v>
+        <v>578.5476590249501</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2741.012457539436</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.546699278356</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.407367302545</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,34 +5042,34 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5078,13 +5078,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>363.7369613277355</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>215.8238677453423</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
         <v>175.9033664000582</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7388,28 +7388,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>105.8997516911</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038614</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>696443.6571417147</v>
+        <v>696443.6571417146</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="F2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="G2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210055</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179355</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179354</v>
       </c>
       <c r="H4" t="n">
+        <v>11167.03225179353</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179354</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-788095.1604342752</v>
+        <v>-788095.1604342755</v>
       </c>
       <c r="C6" t="n">
-        <v>540649.5852933174</v>
+        <v>540649.5852933172</v>
       </c>
       <c r="D6" t="n">
-        <v>540649.5852933173</v>
+        <v>540649.5852933171</v>
       </c>
       <c r="E6" t="n">
-        <v>288729.9158379495</v>
+        <v>288695.1779125132</v>
       </c>
       <c r="F6" t="n">
-        <v>614142.3776453048</v>
+        <v>614107.6397198688</v>
       </c>
       <c r="G6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198694</v>
       </c>
       <c r="H6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="I6" t="n">
-        <v>614142.3776453047</v>
+        <v>614107.6397198692</v>
       </c>
       <c r="J6" t="n">
-        <v>396611.1752480275</v>
+        <v>396576.4373225915</v>
       </c>
       <c r="K6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="L6" t="n">
-        <v>614142.3776453045</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="M6" t="n">
-        <v>529087.3497097928</v>
+        <v>529052.6117843576</v>
       </c>
       <c r="N6" t="n">
-        <v>614142.377645305</v>
+        <v>614107.639719869</v>
       </c>
       <c r="O6" t="n">
-        <v>614142.3776453047</v>
+        <v>614107.6397198691</v>
       </c>
       <c r="P6" t="n">
-        <v>614142.3776453049</v>
+        <v>614107.639719869</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393337</v>
       </c>
       <c r="F2" t="n">
-        <v>276.9082648170724</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>83.32522828944137</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>20.18346650181326</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068129</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.5641765069967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>115.220377048572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624357</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>86.93565616285866</v>
+        <v>240.1912326468608</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,25 +33029,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,28 +33494,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663279</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34366,13 +34366,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,16 +37385,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38014,13 +38014,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
